--- a/frontend/faculty_records.xlsx
+++ b/frontend/faculty_records.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -481,6 +481,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>faculty1@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>

--- a/frontend/faculty_records.xlsx
+++ b/frontend/faculty_records.xlsx
@@ -16,20 +16,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,17 +42,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -423,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -448,55 +437,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>faculty1@gmail.com</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12345</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="12.6" customHeight="1">
+    <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>faculty2@gmail.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>faculty3@gmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>faculty1@gmail.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>